--- a/earlywarning-pom/earlywarning-config/src/baf-instances/07_Inst_Categorical_Score.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/07_Inst_Categorical_Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valentina.dallolio\Desktop\app-catalog-main\installations-std-v7\ew-xmpl-pom\ew-xmpl-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
   <si>
     <t>Action</t>
   </si>
@@ -160,18 +160,12 @@
     <t>LabelKey</t>
   </si>
   <si>
-    <t>Light Blue</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
     <t>Orange</t>
   </si>
   <si>
-    <t>Yellow</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -205,12 +199,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>GREEN</t>
   </si>
   <si>
@@ -245,6 +233,15 @@
   </si>
   <si>
     <t>L Blue</t>
+  </si>
+  <si>
+    <t>LIGHT_GREEN</t>
+  </si>
+  <si>
+    <t>L Green</t>
+  </si>
+  <si>
+    <t>lime-m2</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1001,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9763125" cy="9286875"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1305,7 +1350,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,16 +1393,16 @@
         <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1540,10 +1585,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1552,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -1572,10 +1617,10 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1584,7 +1629,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1604,19 +1649,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1636,19 +1681,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1668,19 +1713,19 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -1700,19 +1745,19 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
@@ -1732,16 +1777,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E14">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -1788,7 +1833,7 @@
   <sheetData>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1823,13 +1868,13 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -1841,10 +1886,10 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -1853,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -1864,7 +1909,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -1876,10 +1921,10 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -1888,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
@@ -1899,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1911,10 +1956,10 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -1923,12 +1968,12 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -1990,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2037,10 +2082,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -2062,10 +2107,10 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
